--- a/biology/Zoologie/Dyrosauridae/Dyrosauridae.xlsx
+++ b/biology/Zoologie/Dyrosauridae/Dyrosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dyrosauridae sont une famille fossile de crocodyliformes (un taxon regroupant bon nombre de groupes, dont seul subsiste le groupe des crocodiliens actuels), apparus il y a probablement un peu plus de 113 millions d'années (Crétacé inférieur) et qui se sont éteints il y a 38 millions d'années. C'est donc uniquement par l'intermédiaire des fossiles que nous connaissons ce groupe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un groupe (à une ou deux exceptions près) de crocodiles marins, bien adaptés à la vie aquatique (leur queue, principal agent de locomotion chez les crocodiles, est très haute, permettant une nage active et efficace), mais ils sont également très à l'aise sur la terre ferme grâce à leurs membres robustes.
 Les particularités anatomiques communes à toutes les espèces de ce groupe sont assez nombreuses :
@@ -547,14 +561,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Dyrosauridae a été créée par Stefano (1903) pour l’espèce tunisienne Dyrosaurus phosphaticus ; cette espèce, décrite par Thomas (1893) sous le nom de Crocodilus phosphaticus sur la base de quelques dents et fragments postcrâniens, fut considérée comme un rhynchocéphale par Stefano (1903) et comme un champsosaure par Pomel (1894a). Ce dernier décrivit une seconde espèce en Algérie, D. thevestensis (Pomel, 1894b) avant de la synonymiser avec D. phosphaticus (Pomel, 1894a).
 En fait, les premiers restes appartenant à cette famille furent d’abord décrits par Owen(1849) avec Hyposaurus rogersii, qui considérait cette espèce du Maastrichtien et Paleocène du New Jersey comme un « Teleosauroid ». Sauvage (1904), Nopsca (1905) et Thévenin (1911a, b) quant à eux, classaient les Dyrosauridae dans le groupe des « mésosuchiens ».
 La validité de cette famille fut souvent discutée, Thévenin (1911a, b), Dollo (1914) et Abel (1919) considérant Dyrosaurus comme un Teleosauridae, Piveteau (1935), Arambourg (1952), Bergounioux (1956) et Romer (1956) comme un pholidosauridé et Roux et Douvillé (1910) comme un Plesiosauridae. Seuls von Huene (1956), Kuhn (1968) et Steel (1973) considérèrent les Dyrosauridae comme une famille distincte.
 De nombreux noms de familles furent par ailleurs donnés pour les restes de Dyrosauridae, ainsi Louis Dollo (1914) créa les Congosauridae pour Congosaurus bequaerti, un dyrosaure du Paléocène de Cabinda (Angola), Swinton (1930) les Rhabdognathidae pour son Rhabdognathus rarus du Paléocène du Nigeria, et Bergounioux (1955) les Rhabdosauridae pour son Rhabdosaurus acutidentatus de Tunisie. Le nom Congosauridae fut d’ailleurs accepté par plusieurs auteurs comme Kuhn (1968) et Steel (1973), qui classaient dans cette famille tous les dyrosauridae connus à cette époque tel que C. bequaerti, Dyrosaurus phosphaticus, Phosphatosaurus gavialoides, Rhabdognathus, Rhabdosaurus, Wurnosaurus et Sokotosaurus (parmi ceux-ci, certains noms d’espèces n’étant plus considérés comme valides). La clarification du statut de cette famille ne fut apportée que par Buffetaut, qui considéra définitivement les Dyrosauridae comme une famille à part entière distincte (Buffetaut, 1976a, 1978b, 1981a), lui synonymisant tous les noms définis postérieurement. Il rapporta à cette famille, en plus de Dyrosaurus phosphaticus de Tunisie, Sokotosuchus ianwilsoni du Maastrichtien du Nigeria et précédemment considéré comme un Teleosauridae (Halstead, 1975) et Hyposaurus rogersii d’Amérique du Nord et considéré jusque-là comme un Goniopholididae (Mook, 1925 ; Steel, 1973) ou un Pholidosauridae (Kälin, 1955). Buffetaut(1976) créa plus tard le groupe des Tethysuchia, parfaitement synonyme du nom Dyrosauridae, et divisa ceux-ci en deux groupes : les Phosphatosaurinae (Dyrosauridae à dents robustes) et les Hyposaurinae (Dyrosauridae à dents grêles) (Buffetaut, 1981a).
-Cladogramme
-Le cladogramme suivant de Daniel Fortier et ses collègues en 2011[1] montre la position des espèces au sein de la famille des Pholidosauridae :
 </t>
         </is>
       </c>
@@ -580,10 +594,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant de Daniel Fortier et ses collègues en 2011 montre la position des espèces au sein de la famille des Pholidosauridae :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dyrosauridae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyrosauridae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Amérique du Nord, où le premier dyrosaure a été décrit, plusieurs espèces ont été identifiées dans les sédiments Maastrichtiens et Paléocènes (Danien). Ils proviennent principalement du New Jersey (Owen, 1849 ; Leidy, 1865 ; Cope, 1868 ; Troxell, 1925c ; Miller, 1955a ; Wolfe, 1977 ; Parris, 1986 ; Denton et al., 1994, 1997), mais leur présence a aussi été signalée en Caroline du Sud, Alabama et peut-être en Virginie et Mississippi (Denton et al., 1994, 1997).
 De nombreuses espèces ont été nommées, avec Hyposaurus rogersii (Owen, 1849), Hyposaurus ferox (March, 1871), Hyposaurus natator (Troxell, 1925c) et Hyposaurus natator oweni (Troxell, 1925c). Parmi celles-ci, seules H. rogersii et H. natator furent reconnues comme des espèces valides par Norell et Storrs (1989), alors que Denton et al. (1994, 1997) n’ont quant à eux considéré qu’une seule espèce, H. rogersii.
